--- a/biology/Neurosciences/L'Encéphale/L'Encéphale.xlsx
+++ b/biology/Neurosciences/L'Encéphale/L'Encéphale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Enc%C3%A9phale</t>
+          <t>L'Encéphale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Encéphale, sous-titré Journal des maladies mentales et nerveuses, était une revue scientifique à visée médicale fondée par Jules Bernard Luys et Benjamin Ball en 1881 et publiée jusqu'en 1889 par les Éditions Masson.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Enc%C3%A9phale</t>
+          <t>L'Encéphale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Numéros de L'Encéphale accessibles dans Gallica, la bibliothèque numérique de la BnF.
  Portail de la presse écrite   Portail de la psychologie   Portail des neurosciences   Portail de la France au XIXe siècle                  </t>
